--- a/biology/Botanique/Gratin_savoyard/Gratin_savoyard.xlsx
+++ b/biology/Botanique/Gratin_savoyard/Gratin_savoyard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le gratin savoyard est une recette de cuisine traditionnelle de gratin de pommes de terre cuit dans du bouillon de bœuf, et gratiné au fromage de Savoie (beaufort, emmental, gruyère) de la cuisine savoyarde, variante du gratin dauphinois.
@@ -512,9 +524,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recette est élaborée, à l'origine, avec des pommes de terre cuites dans du bouillon de bœuf (de pot-au-feu par exemple) puis gratinée avec du fromage, en général à base de pâte dure comme du gruyère râpé, de l'emmental ou du beaufort[1]. Contrairement à la version dauphinoise, le gratin de pommes de terre à la mode savoyarde ne comporte ni lait, ni crème fraîche, ni œuf[2]. Certaines recettes traditionnelles ne comportent pas de fromage[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recette est élaborée, à l'origine, avec des pommes de terre cuites dans du bouillon de bœuf (de pot-au-feu par exemple) puis gratinée avec du fromage, en général à base de pâte dure comme du gruyère râpé, de l'emmental ou du beaufort. Contrairement à la version dauphinoise, le gratin de pommes de terre à la mode savoyarde ne comporte ni lait, ni crème fraîche, ni œuf. Certaines recettes traditionnelles ne comportent pas de fromage.
 </t>
         </is>
       </c>
